--- a/datos/nombres-personales-soledades-lema.xlsx
+++ b/datos/nombres-personales-soledades-lema.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antonio/Documents/github/soledades/datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -870,6 +878,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1198,17 +1211,17 @@
   <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1232,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1280,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1288,7 +1301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1304,7 +1317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1312,7 +1325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1328,7 +1341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1344,7 +1357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1360,7 +1373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1368,7 +1381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1376,7 +1389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1384,7 +1397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1392,7 +1405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1400,7 +1413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1416,7 +1429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1432,7 +1445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1440,7 +1453,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1448,7 +1461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1456,7 +1469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1480,11 +1493,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -1494,7 +1507,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -1518,7 +1531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1526,7 +1539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -1534,7 +1547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -1542,7 +1555,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
@@ -1550,7 +1563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>85</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -1574,7 +1587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>106</v>
       </c>
@@ -1582,7 +1595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
@@ -1598,7 +1611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>120</v>
       </c>
@@ -1606,7 +1619,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>126</v>
       </c>
@@ -1614,7 +1627,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>131</v>
       </c>
@@ -1622,7 +1635,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>136</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>141</v>
       </c>
@@ -1638,7 +1651,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>146</v>
       </c>
@@ -1646,7 +1659,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>151</v>
       </c>
@@ -1654,7 +1667,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>156</v>
       </c>
@@ -1662,7 +1675,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
@@ -1670,7 +1683,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>166</v>
       </c>
@@ -1678,7 +1691,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>171</v>
       </c>
@@ -1686,7 +1699,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>177</v>
       </c>
@@ -1694,7 +1707,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>182</v>
       </c>
@@ -1702,7 +1715,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>186</v>
       </c>
@@ -1710,7 +1723,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>188</v>
       </c>
@@ -1718,7 +1731,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>190</v>
       </c>
@@ -1726,7 +1739,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>192</v>
       </c>
@@ -1734,7 +1747,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>194</v>
       </c>
@@ -1742,7 +1755,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>196</v>
       </c>
@@ -1750,7 +1763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>198</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>200</v>
       </c>
@@ -1766,7 +1779,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>202</v>
       </c>
@@ -1774,7 +1787,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>204</v>
       </c>
@@ -1782,7 +1795,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>206</v>
       </c>
@@ -1790,7 +1803,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>208</v>
       </c>
@@ -1798,7 +1811,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>210</v>
       </c>
@@ -1806,7 +1819,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>212</v>
       </c>
@@ -1814,7 +1827,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1">
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>214</v>
       </c>
@@ -1822,7 +1835,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>216</v>
       </c>
@@ -1830,7 +1843,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>218</v>
       </c>
@@ -1838,7 +1851,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>220</v>
       </c>
@@ -1846,7 +1859,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>222</v>
       </c>
@@ -1854,7 +1867,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>224</v>
       </c>
@@ -1862,7 +1875,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>226</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>228</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>230</v>
       </c>
@@ -1886,7 +1899,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>232</v>
       </c>
@@ -1894,7 +1907,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>234</v>
       </c>
@@ -1902,7 +1915,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>236</v>
       </c>
@@ -1910,7 +1923,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>238</v>
       </c>
@@ -1918,7 +1931,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>240</v>
       </c>
@@ -1926,7 +1939,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>242</v>
       </c>
@@ -1934,7 +1947,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>244</v>
       </c>
@@ -1942,7 +1955,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>246</v>
       </c>
@@ -1950,7 +1963,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1">
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>248</v>
       </c>
@@ -1958,7 +1971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>250</v>
       </c>
@@ -1966,7 +1979,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>252</v>
       </c>
@@ -1974,7 +1987,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>254</v>
       </c>
@@ -1982,7 +1995,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>256</v>
       </c>
@@ -1990,7 +2003,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>258</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>260</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>262</v>
       </c>
@@ -2014,157 +2027,154 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1">
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1">
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1">
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1">
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2172,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
@@ -2180,7 +2190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
@@ -2196,7 +2206,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -2212,7 +2222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>102</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>105</v>
       </c>
@@ -2236,7 +2246,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
@@ -2252,7 +2262,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
@@ -2276,7 +2286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>124</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>127</v>
       </c>
@@ -2292,7 +2302,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>130</v>
       </c>
@@ -2300,7 +2310,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -2308,7 +2318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>137</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>144</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -2340,7 +2350,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>150</v>
       </c>
@@ -2348,7 +2358,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>154</v>
       </c>
@@ -2356,90 +2366,79 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="2" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>